--- a/grid for print.xlsx
+++ b/grid for print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ondrejzika/Documents/Codes/environments-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F5C2B7-D26C-694A-926C-41E6647D23DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE6672D-9D4F-E349-B275-3D0292BC2523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{9E281EBA-0464-614A-AB7B-B4804F402EC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>a</t>
   </si>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +99,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -307,6 +313,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,15 +652,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342DF9B7-0A9D-A347-AD34-5CD00AAB8F96}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="11" width="5.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>1</v>
@@ -684,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -699,7 +711,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -714,7 +726,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -729,7 +741,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -744,7 +756,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -759,7 +771,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -774,7 +786,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -789,7 +801,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -804,7 +816,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -819,7 +831,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -834,13 +846,8 @@
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>1</v>
@@ -873,38 +880,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="10">
-        <v>2</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10">
-        <v>3</v>
-      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="10">
-        <v>5</v>
-      </c>
+      <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="10">
-        <v>5</v>
-      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -913,15 +910,13 @@
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="10">
-        <v>5</v>
-      </c>
+      <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -930,30 +925,22 @@
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="10">
-        <v>2</v>
-      </c>
-      <c r="C24" s="10">
-        <v>4</v>
-      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10">
-        <v>4</v>
-      </c>
-      <c r="F24" s="10">
-        <v>3</v>
-      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -966,11 +953,9 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -985,7 +970,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +985,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
@@ -1015,7 +1000,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1015,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>11</v>
       </c>
@@ -1045,14 +1030,11 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
+    <row r="36" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
       <c r="B37" s="5">
         <v>1</v>
       </c>
@@ -1084,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1081,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1114,7 +1096,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1115,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1134,7 @@
       </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1159,7 @@
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1205,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1230,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1247,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1264,216 @@
       <c r="J47" s="3"/>
       <c r="K47" s="4"/>
     </row>
+    <row r="50" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5">
+        <v>4</v>
+      </c>
+      <c r="F51" s="5">
+        <v>5</v>
+      </c>
+      <c r="G51" s="5">
+        <v>6</v>
+      </c>
+      <c r="H51" s="5">
+        <v>7</v>
+      </c>
+      <c r="I51" s="5">
+        <v>8</v>
+      </c>
+      <c r="J51" s="5">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10">
+        <v>2</v>
+      </c>
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10">
+        <v>5</v>
+      </c>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10">
+        <v>5</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10">
+        <v>5</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="10">
+        <v>2</v>
+      </c>
+      <c r="C55" s="10">
+        <v>4</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10">
+        <v>4</v>
+      </c>
+      <c r="F55" s="10">
+        <v>3</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/grid for print.xlsx
+++ b/grid for print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ondrejzika/Documents/Codes/environments-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE6672D-9D4F-E349-B275-3D0292BC2523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77275AA-472A-F642-9CCF-987DAED30417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{9E281EBA-0464-614A-AB7B-B4804F402EC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>BLACK</t>
   </si>
   <si>
     <t>e</t>
@@ -73,12 +67,27 @@
   <si>
     <t>j</t>
   </si>
+  <si>
+    <t>Let's sweep some mines together!</t>
+  </si>
+  <si>
+    <t>You want to find the mines touched by blue.</t>
+  </si>
+  <si>
+    <t>ONLY THOSE!</t>
+  </si>
+  <si>
+    <t>Black is danger.</t>
+  </si>
+  <si>
+    <t>BUT NOT ONLY BLACK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,8 +115,15 @@
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +142,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -270,11 +298,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,6 +509,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342DF9B7-0A9D-A347-AD34-5CD00AAB8F96}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +1001,7 @@
     </row>
     <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -773,7 +1016,7 @@
     </row>
     <row r="7" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -788,7 +1031,7 @@
     </row>
     <row r="8" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -803,7 +1046,7 @@
     </row>
     <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -818,7 +1061,7 @@
     </row>
     <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -833,7 +1076,7 @@
     </row>
     <row r="11" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -942,7 +1185,7 @@
     </row>
     <row r="25" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -957,7 +1200,7 @@
     </row>
     <row r="26" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -972,7 +1215,7 @@
     </row>
     <row r="27" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -987,7 +1230,7 @@
     </row>
     <row r="28" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1002,7 +1245,7 @@
     </row>
     <row r="29" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1017,7 +1260,7 @@
     </row>
     <row r="30" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1030,56 +1273,99 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+    <row r="33" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+    </row>
+    <row r="37" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19">
+        <v>2</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3</v>
+      </c>
+      <c r="E37" s="19">
         <v>4</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2</v>
-      </c>
-      <c r="D37" s="5">
-        <v>3</v>
-      </c>
-      <c r="E37" s="5">
-        <v>4</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="F37" s="19">
         <v>5</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="19">
         <v>6</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="19">
         <v>7</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="19">
         <v>8</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="19">
         <v>9</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="2"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
@@ -1136,7 +1422,7 @@
     </row>
     <row r="42" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -1161,7 +1447,7 @@
     </row>
     <row r="43" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1186,7 +1472,7 @@
     </row>
     <row r="44" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1207,7 +1493,7 @@
     </row>
     <row r="45" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
@@ -1232,7 +1518,7 @@
     </row>
     <row r="46" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1249,7 +1535,7 @@
     </row>
     <row r="47" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1264,116 +1550,118 @@
       <c r="J47" s="3"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+    </row>
+    <row r="52" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+    </row>
+    <row r="53" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5">
+        <v>4</v>
+      </c>
+      <c r="F53" s="5">
         <v>5</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
-      <c r="D51" s="5">
-        <v>3</v>
-      </c>
-      <c r="E51" s="5">
-        <v>4</v>
-      </c>
-      <c r="F51" s="5">
-        <v>5</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="G53" s="5">
         <v>6</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H53" s="5">
         <v>7</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I53" s="5">
         <v>8</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J53" s="5">
         <v>9</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K53" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="10">
-        <v>2</v>
-      </c>
-      <c r="C52" s="10">
-        <v>2</v>
-      </c>
-      <c r="D52" s="10">
-        <v>3</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10">
-        <v>5</v>
-      </c>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10">
-        <v>5</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="10">
         <v>2</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="10">
+        <v>2</v>
+      </c>
       <c r="D54" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="10">
+        <v>5</v>
+      </c>
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="10">
-        <v>2</v>
-      </c>
-      <c r="C55" s="10">
-        <v>4</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10">
-        <v>4</v>
-      </c>
-      <c r="F55" s="10">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10">
+        <v>5</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -1382,30 +1670,38 @@
     </row>
     <row r="56" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="D56" s="10">
+        <v>5</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="11">
-        <v>1</v>
-      </c>
+      <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2</v>
+      </c>
+      <c r="C57" s="10">
+        <v>4</v>
+      </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="10">
+        <v>4</v>
+      </c>
+      <c r="F57" s="10">
+        <v>3</v>
+      </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -1414,7 +1710,7 @@
     </row>
     <row r="58" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1425,11 +1721,13 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
-      <c r="K58" s="11"/>
+      <c r="K58" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1444,7 +1742,7 @@
     </row>
     <row r="60" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1457,22 +1755,60 @@
       <c r="J60" s="10"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="13"/>
+    <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A52:K52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/grid for print.xlsx
+++ b/grid for print.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ondrejzika/Documents/Codes/environments-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77275AA-472A-F642-9CCF-987DAED30417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED0069-DD93-DB47-B560-C0C4B89F3C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{9E281EBA-0464-614A-AB7B-B4804F402EC3}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9E281EBA-0464-614A-AB7B-B4804F402EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,6 +528,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,13 +546,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,9 +556,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,6 +576,299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208643</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B4F764-F1C4-92EE-9839-E8E889E0B60F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="208643" y="14713857"/>
+          <a:ext cx="4735285" cy="3501572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:alphaModFix amt="15000"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208643</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A3F1AE-113B-4149-9CB5-9325C628CF69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="208643" y="10123714"/>
+          <a:ext cx="4735285" cy="3501572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:alphaModFix amt="15000"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263071</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>263071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC60B9C2-8050-5D4E-A9BD-AE042935495B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="263071" y="5388428"/>
+          <a:ext cx="4735285" cy="3501572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:alphaModFix amt="15000"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145142</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFD70CF-3BC1-964B-BB26-E8DA52E35ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="716643"/>
+          <a:ext cx="4735285" cy="3501572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:alphaModFix amt="15000"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342DF9B7-0A9D-A347-AD34-5CD00AAB8F96}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,72 +1199,43 @@
     <col min="1" max="11" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="5">
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G3" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H3" s="5">
         <v>7</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I3" s="5">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J3" s="5">
         <v>9</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K3" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -986,7 +1250,7 @@
     </row>
     <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1001,7 +1265,7 @@
     </row>
     <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1016,7 +1280,7 @@
     </row>
     <row r="7" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1031,7 +1295,7 @@
     </row>
     <row r="8" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1046,7 +1310,7 @@
     </row>
     <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1061,7 +1325,7 @@
     </row>
     <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1074,20 +1338,50 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,465 +1567,393 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="33" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+    <row r="37" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
-    </row>
-    <row r="36" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-    </row>
-    <row r="37" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19">
         <v>1</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C41" s="19">
         <v>2</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D41" s="19">
         <v>3</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E41" s="19">
         <v>4</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F41" s="19">
         <v>5</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G41" s="19">
         <v>6</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H41" s="19">
         <v>7</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I41" s="19">
         <v>8</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J41" s="19">
         <v>9</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K41" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+    <row r="42" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1">
-        <v>5</v>
-      </c>
-      <c r="H40" s="1">
-        <v>6</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1">
-        <v>6</v>
-      </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <v>3</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1">
-        <v>3</v>
-      </c>
-      <c r="K42" s="2"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
     </row>
     <row r="43" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
-        <v>3</v>
-      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1">
-        <v>5</v>
-      </c>
-      <c r="J43" s="1">
-        <v>3</v>
-      </c>
-      <c r="K43" s="2">
-        <v>2</v>
-      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1">
         <v>5</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1">
-        <v>4</v>
-      </c>
+      <c r="H44" s="1">
+        <v>6</v>
+      </c>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1">
         <v>6</v>
       </c>
-      <c r="H45" s="1">
-        <v>4</v>
-      </c>
-      <c r="I45" s="1">
-        <v>6</v>
-      </c>
-      <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1">
-        <v>5</v>
-      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
+        <v>4</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1">
+        <v>6</v>
+      </c>
+      <c r="H49" s="1">
+        <v>4</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1">
+        <v>5</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
         <v>4</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-    </row>
-    <row r="52" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+    </row>
+    <row r="56" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-    </row>
-    <row r="53" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="5">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="5">
         <v>1</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C57" s="5">
         <v>2</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D57" s="5">
         <v>3</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E57" s="5">
         <v>4</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F57" s="5">
         <v>5</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G57" s="5">
         <v>6</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H57" s="5">
         <v>7</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I57" s="5">
         <v>8</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J57" s="5">
         <v>9</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K57" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="10">
-        <v>2</v>
-      </c>
-      <c r="C54" s="10">
-        <v>2</v>
-      </c>
-      <c r="D54" s="10">
-        <v>3</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10">
-        <v>5</v>
-      </c>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10">
-        <v>5</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10">
-        <v>5</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="10">
-        <v>2</v>
-      </c>
-      <c r="C57" s="10">
-        <v>4</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10">
-        <v>4</v>
-      </c>
-      <c r="F57" s="10">
-        <v>3</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="11"/>
     </row>
     <row r="58" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="B58" s="10">
+        <v>2</v>
+      </c>
+      <c r="C58" s="10">
+        <v>2</v>
+      </c>
+      <c r="D58" s="10">
+        <v>3</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="11">
-        <v>1</v>
-      </c>
+      <c r="J58" s="10">
+        <v>5</v>
+      </c>
+      <c r="K58" s="11"/>
     </row>
     <row r="59" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="D59" s="10">
+        <v>5</v>
+      </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -1742,11 +1964,13 @@
     </row>
     <row r="60" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10">
+        <v>5</v>
+      </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -1757,13 +1981,21 @@
     </row>
     <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="B61" s="10">
+        <v>2</v>
+      </c>
+      <c r="C61" s="10">
+        <v>4</v>
+      </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="E61" s="10">
+        <v>4</v>
+      </c>
+      <c r="F61" s="10">
+        <v>3</v>
+      </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
@@ -1772,7 +2004,7 @@
     </row>
     <row r="62" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1783,33 +2015,96 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="K62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="13"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A55:K55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>